--- a/rnd1_analysis/rnd1_stats.xlsx
+++ b/rnd1_analysis/rnd1_stats.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
